--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3797984.606505981</v>
+        <v>3799745.136808767</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C2" t="n">
-        <v>218.5859760619275</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415046</v>
+        <v>72.93385014149882</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.53301740339804</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>93.29325946825189</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>22.89872494655469</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -873,10 +873,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>169.3326875931247</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143454</v>
+        <v>290.2905114143452</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>275.2193348995189</v>
+        <v>275.2193348995186</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2905114143454</v>
+        <v>290.2905114143452</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790369</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>131.4756798678807</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>116.3784374999763</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6735307458676</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>248.9297137451088</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>159.0444121937469</v>
+        <v>224.7543248662169</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>5.42162358678916</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>44.75138076689272</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576164</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>259.9714295377605</v>
+        <v>401.1007355715663</v>
       </c>
       <c r="C2" t="n">
-        <v>39.17751432369234</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="D2" t="n">
-        <v>39.17751432369234</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="E2" t="n">
-        <v>39.17751432369234</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448886</v>
+        <v>151.9249841743781</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132037</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132037</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192955</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605485</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859557</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779379</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948972</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444234</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660183</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T2" t="n">
-        <v>744.4319308337294</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U2" t="n">
-        <v>502.201680185745</v>
+        <v>885.5612368675357</v>
       </c>
       <c r="V2" t="n">
-        <v>502.201680185745</v>
+        <v>885.5612368675357</v>
       </c>
       <c r="W2" t="n">
-        <v>502.201680185745</v>
+        <v>885.5612368675357</v>
       </c>
       <c r="X2" t="n">
-        <v>502.201680185745</v>
+        <v>885.5612368675357</v>
       </c>
       <c r="Y2" t="n">
-        <v>259.9714295377605</v>
+        <v>643.3309862195511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.18463585132037</v>
+        <v>428.2724783732226</v>
       </c>
       <c r="C3" t="n">
-        <v>19.18463585132037</v>
+        <v>428.2724783732226</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132037</v>
+        <v>279.3380687119713</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132037</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132037</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132037</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467723</v>
+        <v>86.79245551467734</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>290.1388331607139</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>469.6361695153187</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>668.2929111679832</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>827.8052238367437</v>
       </c>
       <c r="P3" t="n">
-        <v>870.378071733699</v>
+        <v>936.4948513640425</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660184</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660184</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660184</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="U3" t="n">
-        <v>731.0930050771842</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="V3" t="n">
-        <v>495.9408968454415</v>
+        <v>843.8842773437093</v>
       </c>
       <c r="W3" t="n">
-        <v>495.9408968454415</v>
+        <v>843.8842773437093</v>
       </c>
       <c r="X3" t="n">
-        <v>288.0893966399087</v>
+        <v>636.0327771381765</v>
       </c>
       <c r="Y3" t="n">
-        <v>80.32909787495475</v>
+        <v>428.2724783732226</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>491.3723452303989</v>
+        <v>320.3292264494656</v>
       </c>
       <c r="C4" t="n">
-        <v>491.3723452303989</v>
+        <v>320.3292264494656</v>
       </c>
       <c r="D4" t="n">
-        <v>491.3723452303989</v>
+        <v>320.3292264494656</v>
       </c>
       <c r="E4" t="n">
-        <v>343.4592516480058</v>
+        <v>320.3292264494656</v>
       </c>
       <c r="F4" t="n">
-        <v>196.5693041500954</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="G4" t="n">
         <v>173.4392789515553</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223401</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584443</v>
+        <v>656.2710011584451</v>
       </c>
       <c r="O4" t="n">
-        <v>830.365896547043</v>
+        <v>830.3658965470439</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456586</v>
+        <v>955.8134731456595</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T4" t="n">
-        <v>733.6025958783833</v>
+        <v>733.6025958783844</v>
       </c>
       <c r="U4" t="n">
-        <v>491.3723452303989</v>
+        <v>491.3723452303997</v>
       </c>
       <c r="V4" t="n">
-        <v>491.3723452303989</v>
+        <v>320.3292264494656</v>
       </c>
       <c r="W4" t="n">
-        <v>491.3723452303989</v>
+        <v>320.3292264494656</v>
       </c>
       <c r="X4" t="n">
-        <v>491.3723452303989</v>
+        <v>320.3292264494656</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.3723452303989</v>
+        <v>320.3292264494656</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.03965385861439</v>
+        <v>43.03965385861437</v>
       </c>
       <c r="C5" t="n">
-        <v>43.03965385861439</v>
+        <v>43.03965385861437</v>
       </c>
       <c r="D5" t="n">
-        <v>43.03965385861439</v>
+        <v>43.03965385861437</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03965385861439</v>
+        <v>43.03965385861437</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941092</v>
+        <v>36.0941531094109</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951924</v>
+        <v>59.13673382951919</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444945</v>
+        <v>163.7002683444944</v>
       </c>
       <c r="L5" t="n">
         <v>330.3223409084619</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162837</v>
+        <v>547.3909387162835</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537009</v>
+        <v>772.5857417537006</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416867</v>
+        <v>971.8955472416865</v>
       </c>
       <c r="P5" t="n">
         <v>1107.500854171407</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="U5" t="n">
-        <v>907.4844596446849</v>
+        <v>907.4844596446842</v>
       </c>
       <c r="V5" t="n">
-        <v>907.4844596446849</v>
+        <v>907.4844596446842</v>
       </c>
       <c r="W5" t="n">
-        <v>629.4851314633527</v>
+        <v>629.4851314633522</v>
       </c>
       <c r="X5" t="n">
-        <v>336.2623926609835</v>
+        <v>336.2623926609833</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.2623926609835</v>
+        <v>336.2623926609833</v>
       </c>
     </row>
     <row r="6">
@@ -4634,58 +4634,58 @@
         <v>169.7577988862627</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="J6" t="n">
-        <v>150.6253492920937</v>
+        <v>25.79522430508889</v>
       </c>
       <c r="K6" t="n">
-        <v>233.1761032933333</v>
+        <v>108.3459783063285</v>
       </c>
       <c r="L6" t="n">
-        <v>390.4983205989444</v>
+        <v>265.6681956119395</v>
       </c>
       <c r="M6" t="n">
-        <v>593.4427959572561</v>
+        <v>468.6126709702512</v>
       </c>
       <c r="N6" t="n">
-        <v>816.1672526139162</v>
+        <v>691.3371276269113</v>
       </c>
       <c r="O6" t="n">
-        <v>997.6968225015463</v>
+        <v>872.8666975145413</v>
       </c>
       <c r="P6" t="n">
-        <v>1124.057240022672</v>
+        <v>999.2271150356672</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657382</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657382</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="T6" t="n">
-        <v>1161.162045657382</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="U6" t="n">
-        <v>1161.162045657382</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="V6" t="n">
-        <v>1161.162045657382</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="W6" t="n">
-        <v>1028.358328619118</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="X6" t="n">
         <v>1028.358328619118</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>805.4362060971964</v>
+        <v>637.0791043336937</v>
       </c>
       <c r="C7" t="n">
-        <v>636.5000231692895</v>
+        <v>468.1429214057869</v>
       </c>
       <c r="D7" t="n">
-        <v>486.3833837569538</v>
+        <v>318.0262819934511</v>
       </c>
       <c r="E7" t="n">
-        <v>338.4702901745607</v>
+        <v>170.113188411058</v>
       </c>
       <c r="F7" t="n">
-        <v>191.5803426766503</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314762</v>
       </c>
       <c r="K7" t="n">
         <v>133.2846894279144</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993036</v>
+        <v>329.6518852993035</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276983</v>
+        <v>547.0826837276982</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730491</v>
+        <v>764.7780801730489</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967851</v>
+        <v>949.8387182967849</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195907</v>
+        <v>1084.669382195906</v>
       </c>
       <c r="Q7" t="n">
         <v>1094.584064899862</v>
@@ -4752,25 +4752,25 @@
         <v>1094.584064899862</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899862</v>
+        <v>888.5232596317835</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899862</v>
+        <v>888.5232596317835</v>
       </c>
       <c r="U7" t="n">
-        <v>805.4362060971964</v>
+        <v>637.0791043336937</v>
       </c>
       <c r="V7" t="n">
-        <v>805.4362060971964</v>
+        <v>637.0791043336937</v>
       </c>
       <c r="W7" t="n">
-        <v>805.4362060971964</v>
+        <v>637.0791043336937</v>
       </c>
       <c r="X7" t="n">
-        <v>805.4362060971964</v>
+        <v>637.0791043336937</v>
       </c>
       <c r="Y7" t="n">
-        <v>805.4362060971964</v>
+        <v>637.0791043336937</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.273730074954</v>
+        <v>1802.273730074953</v>
       </c>
       <c r="C8" t="n">
         <v>1433.311213134542</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.045514527792</v>
+        <v>1075.045514527791</v>
       </c>
       <c r="E8" t="n">
-        <v>689.2572619295474</v>
+        <v>689.257261929547</v>
       </c>
       <c r="F8" t="n">
-        <v>278.2713571399399</v>
+        <v>278.2713571399394</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4846,10 +4846,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139076</v>
+        <v>2188.873570139075</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
         <v>1092.885047004312</v>
@@ -4895,7 +4895,7 @@
         <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
         <v>2175.502629736639</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4950,28 +4950,28 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -5032,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5424,10 +5424,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5509,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6256,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400717</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,34 +7785,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928426</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>66.78462588923512</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923487</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>118.0172116724295</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>111.3252676074461</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506818</v>
+        <v>54.74236624506821</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.581221505605974</v>
+        <v>128.6722568460144</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>240.446544241744</v>
+        <v>240.4465442417432</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>211.9838267404991</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.40333084624518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>653123.5583234251</v>
+        <v>653123.5583234252</v>
       </c>
     </row>
     <row r="3">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176769</v>
@@ -26322,31 +26322,31 @@
         <v>800515.7256176767</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977554</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
@@ -26355,7 +26355,7 @@
         <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210862</v>
+        <v>55881.32342210818</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.886627625</v>
+        <v>363279.8866276253</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353576</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440449</v>
+        <v>12992.59634440439</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666291</v>
+        <v>88656.33991666279</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431041</v>
+        <v>246054.6603431042</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828188</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26459,7 +26459,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683054</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437329</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302695</v>
+        <v>65162.40123302693</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173939.2286028124</v>
+        <v>-173939.2286028129</v>
       </c>
       <c r="C6" t="n">
-        <v>433417.3406194372</v>
+        <v>433417.3406194376</v>
       </c>
       <c r="D6" t="n">
-        <v>200346.9725673882</v>
+        <v>200346.9725673879</v>
       </c>
       <c r="E6" t="n">
-        <v>165015.719848115</v>
+        <v>165328.3611770368</v>
       </c>
       <c r="F6" t="n">
-        <v>672501.1614726612</v>
+        <v>672813.8028015823</v>
       </c>
       <c r="G6" t="n">
-        <v>672501.1614726612</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="H6" t="n">
-        <v>672501.1614726612</v>
+        <v>672813.802801583</v>
       </c>
       <c r="I6" t="n">
-        <v>672501.1614726614</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="J6" t="n">
-        <v>609756.8506891257</v>
+        <v>610069.4920180468</v>
       </c>
       <c r="K6" t="n">
-        <v>659508.5651282565</v>
+        <v>659821.2064571783</v>
       </c>
       <c r="L6" t="n">
-        <v>583844.8215559984</v>
+        <v>584157.4628849201</v>
       </c>
       <c r="M6" t="n">
-        <v>539893.8677437345</v>
+        <v>540206.5090726558</v>
       </c>
       <c r="N6" t="n">
-        <v>672501.1614726614</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="O6" t="n">
-        <v>672501.1614726613</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="P6" t="n">
-        <v>672501.1614726612</v>
+        <v>672813.8028015827</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575571</v>
+        <v>636.932942157557</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143454</v>
+        <v>290.2905114143452</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949252</v>
+        <v>43.45684181949218</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599821</v>
+        <v>297.1319499599823</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284081</v>
+        <v>50.48256327284041</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856934</v>
+        <v>350.2943206856935</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415043</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284081</v>
+        <v>50.48256327284041</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856937</v>
+        <v>350.2943206856933</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284081</v>
+        <v>50.48256327284041</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856934</v>
+        <v>350.2943206856935</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219757</v>
       </c>
       <c r="C2" t="n">
-        <v>146.68691570908</v>
+        <v>125.4649436295027</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079604</v>
+        <v>178.2209360808018</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.429990514549</v>
+        <v>146.4299905145487</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.0001662464693</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27514,10 +27514,10 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>139.5073276811734</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>144.0220516080157</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659239</v>
+        <v>46.45270651659214</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>82.80495573070331</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913516</v>
+        <v>92.44333024913533</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>74.02163381789416</v>
+        <v>74.02163381789438</v>
       </c>
       <c r="X5" t="n">
-        <v>79.44058926412362</v>
+        <v>79.44058926412379</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790368</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>146.2358974242411</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>120.2193032930389</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>89.39454770350113</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1688810119791526</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
@@ -27797,7 +27797,7 @@
         <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340522</v>
+        <v>12.15545075340523</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>37.32666646953047</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>252.5032905792071</v>
+        <v>186.793377906737</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,22 +31284,22 @@
         <v>26.22307334219529</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026825</v>
+        <v>98.71500403026823</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977688</v>
+        <v>217.3221599977687</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782889</v>
+        <v>325.7095828782888</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719747</v>
+        <v>404.0715387719746</v>
       </c>
       <c r="M5" t="n">
         <v>449.6074431341634</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141842</v>
+        <v>456.8825616141841</v>
       </c>
       <c r="O5" t="n">
         <v>431.4212472681371</v>
@@ -31308,19 +31308,19 @@
         <v>368.2080532600378</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976559</v>
+        <v>276.5089135976558</v>
       </c>
       <c r="R5" t="n">
         <v>160.8431715690639</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051392</v>
+        <v>58.34817857051391</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475259</v>
+        <v>11.20873951475258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667519</v>
+        <v>0.2048427552667518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>13.23138055312208</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770589</v>
+        <v>47.16909052770588</v>
       </c>
       <c r="J6" t="n">
         <v>129.4355896888296</v>
@@ -31372,13 +31372,13 @@
         <v>221.2260389756111</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916026</v>
+        <v>297.4657103916025</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758686</v>
+        <v>347.1284534758685</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264244</v>
+        <v>356.3159107264243</v>
       </c>
       <c r="O6" t="n">
         <v>325.9594463511415</v>
@@ -31390,16 +31390,16 @@
         <v>174.8801542316372</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473946</v>
+        <v>85.06059178473944</v>
       </c>
       <c r="S6" t="n">
         <v>25.44727367959672</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479197</v>
+        <v>5.522088432479196</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663549</v>
+        <v>0.09013202011663547</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31445,7 +31445,7 @@
         <v>34.54056020749507</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326756</v>
+        <v>81.20372936326754</v>
       </c>
       <c r="K7" t="n">
         <v>133.4426721438291</v>
@@ -31454,7 +31454,7 @@
         <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577501</v>
+        <v>180.04319215775</v>
       </c>
       <c r="N7" t="n">
         <v>175.7621674645601</v>
@@ -31463,22 +31463,22 @@
         <v>162.3448095846836</v>
       </c>
       <c r="P7" t="n">
-        <v>138.914030532199</v>
+        <v>138.9140305321989</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579113</v>
+        <v>96.17687426579111</v>
       </c>
       <c r="R7" t="n">
         <v>51.64377593297174</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157437</v>
+        <v>20.01640082157436</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705767</v>
+        <v>4.907516111705766</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156306</v>
+        <v>0.06264914185156305</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>230.9747494877451</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>205.400381460643</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395896</v>
+        <v>22.96660727472414</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8505817925169</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>147.4099394863219</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108246</v>
+        <v>36.27625547108241</v>
       </c>
       <c r="K5" t="n">
         <v>105.6197318333083</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019875</v>
+        <v>168.3051238019874</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068907</v>
+        <v>219.2612099068906</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175933</v>
+        <v>227.4694980175932</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464504</v>
+        <v>201.3230358464503</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047683</v>
+        <v>136.9750575047682</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320638</v>
+        <v>54.20322372320632</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>128.6889983625718</v>
+        <v>2.597963022162901</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125215</v>
+        <v>83.38460000125212</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117284</v>
+        <v>158.9113306117283</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538503</v>
+        <v>204.9944195538502</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430911</v>
+        <v>224.974198643091</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066971</v>
+        <v>183.363201906697</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748747</v>
+        <v>127.6367853748746</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.47960165122168</v>
+        <v>163.5706369916301</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35102,7 +35102,7 @@
         <v>198.350702900393</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195907</v>
+        <v>219.6270691195906</v>
       </c>
       <c r="N7" t="n">
         <v>219.8943398437887</v>
@@ -35114,7 +35114,7 @@
         <v>136.1925897970924</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409674</v>
+        <v>10.01483101409673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>538.1269048795942</v>
+        <v>538.1269048795934</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35275,7 +35275,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>97.00034207341486</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
